--- a/out/CE/falselink/Figori_algorithm_20.xlsx
+++ b/out/CE/falselink/Figori_algorithm_20.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.77990000000000004</v>
+        <v>0.76019999999999999</v>
       </c>
       <c r="B1">
-        <v>0.73050000000000004</v>
+        <v>0.72</v>
       </c>
       <c r="C1">
-        <v>0.74770000000000003</v>
+        <v>0.70950000000000002</v>
       </c>
       <c r="D1">
-        <v>0.73119999999999996</v>
+        <v>0.7419</v>
       </c>
       <c r="E1">
-        <v>0.76380000000000003</v>
+        <v>0.70150000000000001</v>
       </c>
       <c r="F1">
-        <v>0.73680000000000001</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="G1">
-        <v>0.72889999999999999</v>
+        <v>0.75180000000000002</v>
       </c>
       <c r="H1">
-        <v>0.75480000000000003</v>
+        <v>0.78069999999999995</v>
       </c>
       <c r="I1">
-        <v>0.74839999999999995</v>
+        <v>0.73740000000000006</v>
       </c>
       <c r="J1">
-        <v>0.75829999999999997</v>
+        <v>0.72809999999999997</v>
       </c>
       <c r="K1">
-        <v>0.77270000000000005</v>
+        <v>0.73560000000000003</v>
       </c>
       <c r="L1">
-        <v>0.74419999999999997</v>
+        <v>0.74850000000000005</v>
       </c>
       <c r="M1">
+        <v>0.71120000000000005</v>
+      </c>
+      <c r="N1">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="O1">
+        <v>0.74390000000000001</v>
+      </c>
+      <c r="P1">
+        <v>0.77810000000000001</v>
+      </c>
+      <c r="Q1">
+        <v>0.74960000000000004</v>
+      </c>
+      <c r="R1">
+        <v>0.75270000000000004</v>
+      </c>
+      <c r="S1">
+        <v>0.73960000000000004</v>
+      </c>
+      <c r="T1">
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="U1">
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="V1">
+        <v>0.74019999999999997</v>
+      </c>
+      <c r="W1">
+        <v>0.75990000000000002</v>
+      </c>
+      <c r="X1">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="Y1">
+        <v>0.72060000000000002</v>
+      </c>
+      <c r="Z1">
+        <v>0.74660000000000004</v>
+      </c>
+      <c r="AA1">
+        <v>0.72409999999999997</v>
+      </c>
+      <c r="AB1">
+        <v>0.74390000000000001</v>
+      </c>
+      <c r="AC1">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="AD1">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="AE1">
+        <v>0.74029999999999996</v>
+      </c>
+      <c r="AF1">
+        <v>0.73229999999999995</v>
+      </c>
+      <c r="AG1">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="AH1">
+        <v>0.75270000000000004</v>
+      </c>
+      <c r="AI1">
+        <v>0.77290000000000003</v>
+      </c>
+      <c r="AJ1">
+        <v>0.73650000000000004</v>
+      </c>
+      <c r="AK1">
+        <v>0.71719999999999995</v>
+      </c>
+      <c r="AL1">
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="AM1">
+        <v>0.7641</v>
+      </c>
+      <c r="AN1">
+        <v>0.76339999999999997</v>
+      </c>
+      <c r="AO1">
+        <v>0.78090000000000004</v>
+      </c>
+      <c r="AP1">
+        <v>0.7409</v>
+      </c>
+      <c r="AQ1">
         <v>0.73109999999999997</v>
       </c>
-      <c r="N1">
-        <v>0.74490000000000001</v>
-      </c>
-      <c r="O1">
-        <v>0.76829999999999998</v>
-      </c>
-      <c r="P1">
-        <v>0.75719999999999998</v>
-      </c>
-      <c r="Q1">
-        <v>0.73</v>
-      </c>
-      <c r="R1">
-        <v>0.73880000000000001</v>
-      </c>
-      <c r="S1">
-        <v>0.74970000000000003</v>
-      </c>
-      <c r="T1">
-        <v>0.74339999999999995</v>
-      </c>
-      <c r="U1">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="V1">
-        <v>0.76080000000000003</v>
-      </c>
-      <c r="W1">
-        <v>0.74739999999999995</v>
-      </c>
-      <c r="X1">
-        <v>0.75429999999999997</v>
-      </c>
-      <c r="Y1">
-        <v>0.73089999999999999</v>
-      </c>
-      <c r="Z1">
-        <v>0.72709999999999997</v>
-      </c>
-      <c r="AA1">
-        <v>0.73480000000000001</v>
-      </c>
-      <c r="AB1">
-        <v>0.70720000000000005</v>
-      </c>
-      <c r="AC1">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="AD1">
-        <v>0.73350000000000004</v>
-      </c>
-      <c r="AE1">
-        <v>0.72350000000000003</v>
-      </c>
-      <c r="AF1">
-        <v>0.74360000000000004</v>
-      </c>
-      <c r="AG1">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="AH1">
-        <v>0.7702</v>
-      </c>
-      <c r="AI1">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="AJ1">
-        <v>0.73829999999999996</v>
-      </c>
-      <c r="AK1">
-        <v>0.76919999999999999</v>
-      </c>
-      <c r="AL1">
-        <v>0.71830000000000005</v>
-      </c>
-      <c r="AM1">
-        <v>0.755</v>
-      </c>
-      <c r="AN1">
-        <v>0.76070000000000004</v>
-      </c>
-      <c r="AO1">
-        <v>0.75209999999999999</v>
-      </c>
-      <c r="AP1">
-        <v>0.74219999999999997</v>
-      </c>
-      <c r="AQ1">
-        <v>0.76859999999999995</v>
-      </c>
       <c r="AR1">
-        <v>0.74180000000000001</v>
+        <v>0.73519999999999996</v>
       </c>
       <c r="AS1">
-        <v>0.74399999999999999</v>
+        <v>0.76060000000000005</v>
       </c>
       <c r="AT1">
-        <v>0.73150000000000004</v>
+        <v>0.75139999999999996</v>
       </c>
       <c r="AU1">
-        <v>0.74590000000000001</v>
+        <v>0.73129999999999995</v>
       </c>
       <c r="AV1">
-        <v>0.75600000000000001</v>
+        <v>0.76370000000000005</v>
       </c>
       <c r="AW1">
-        <v>0.74280000000000002</v>
+        <v>0.76149999999999995</v>
       </c>
       <c r="AX1">
-        <v>0.74770000000000003</v>
+        <v>0.73850000000000005</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.77480000000000004</v>
+        <v>0.73629999999999995</v>
       </c>
       <c r="B2">
-        <v>0.71560000000000001</v>
+        <v>0.73440000000000005</v>
       </c>
       <c r="C2">
-        <v>0.73919999999999997</v>
+        <v>0.70860000000000001</v>
       </c>
       <c r="D2">
-        <v>0.71540000000000004</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="E2">
-        <v>0.75509999999999999</v>
+        <v>0.68169999999999997</v>
       </c>
       <c r="F2">
-        <v>0.71870000000000001</v>
+        <v>0.78820000000000001</v>
       </c>
       <c r="G2">
-        <v>0.70469999999999999</v>
+        <v>0.71479999999999999</v>
       </c>
       <c r="H2">
-        <v>0.74039999999999995</v>
+        <v>0.76990000000000003</v>
       </c>
       <c r="I2">
-        <v>0.73499999999999999</v>
+        <v>0.72340000000000004</v>
       </c>
       <c r="J2">
-        <v>0.75309999999999999</v>
+        <v>0.7127</v>
       </c>
       <c r="K2">
-        <v>0.75660000000000005</v>
+        <v>0.72450000000000003</v>
       </c>
       <c r="L2">
-        <v>0.72589999999999999</v>
+        <v>0.72330000000000005</v>
       </c>
       <c r="M2">
-        <v>0.70269999999999999</v>
+        <v>0.69269999999999998</v>
       </c>
       <c r="N2">
-        <v>0.73760000000000003</v>
+        <v>0.74150000000000005</v>
       </c>
       <c r="O2">
-        <v>0.74860000000000004</v>
+        <v>0.7329</v>
       </c>
       <c r="P2">
-        <v>0.72960000000000003</v>
+        <v>0.76119999999999999</v>
       </c>
       <c r="Q2">
-        <v>0.7137</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="R2">
-        <v>0.72099999999999997</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="S2">
-        <v>0.7228</v>
+        <v>0.72550000000000003</v>
       </c>
       <c r="T2">
-        <v>0.73880000000000001</v>
+        <v>0.73529999999999995</v>
       </c>
       <c r="U2">
-        <v>0.72750000000000004</v>
+        <v>0.73870000000000002</v>
       </c>
       <c r="V2">
-        <v>0.73299999999999998</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="W2">
-        <v>0.70550000000000002</v>
+        <v>0.75319999999999998</v>
       </c>
       <c r="X2">
-        <v>0.71719999999999995</v>
+        <v>0.71130000000000004</v>
       </c>
       <c r="Y2">
-        <v>0.69279999999999997</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="Z2">
-        <v>0.72840000000000005</v>
+        <v>0.73380000000000001</v>
       </c>
       <c r="AA2">
-        <v>0.71640000000000004</v>
+        <v>0.70430000000000004</v>
       </c>
       <c r="AB2">
-        <v>0.69140000000000001</v>
+        <v>0.71879999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.74829999999999997</v>
+        <v>0.72170000000000001</v>
       </c>
       <c r="AD2">
-        <v>0.71330000000000005</v>
+        <v>0.71240000000000003</v>
       </c>
       <c r="AE2">
-        <v>0.71899999999999997</v>
+        <v>0.72230000000000005</v>
       </c>
       <c r="AF2">
-        <v>0.72929999999999995</v>
+        <v>0.71819999999999995</v>
       </c>
       <c r="AG2">
-        <v>0.73260000000000003</v>
+        <v>0.73570000000000002</v>
       </c>
       <c r="AH2">
-        <v>0.74870000000000003</v>
+        <v>0.73960000000000004</v>
       </c>
       <c r="AI2">
-        <v>0.71789999999999998</v>
+        <v>0.73360000000000003</v>
       </c>
       <c r="AJ2">
-        <v>0.71640000000000004</v>
+        <v>0.72430000000000005</v>
       </c>
       <c r="AK2">
-        <v>0.74490000000000001</v>
+        <v>0.71489999999999998</v>
       </c>
       <c r="AL2">
-        <v>0.7137</v>
+        <v>0.7238</v>
       </c>
       <c r="AM2">
-        <v>0.75049999999999994</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="AN2">
-        <v>0.74590000000000001</v>
+        <v>0.76080000000000003</v>
       </c>
       <c r="AO2">
-        <v>0.73860000000000003</v>
+        <v>0.73419999999999996</v>
       </c>
       <c r="AP2">
+        <v>0.7409</v>
+      </c>
+      <c r="AQ2">
+        <v>0.72560000000000002</v>
+      </c>
+      <c r="AR2">
+        <v>0.72489999999999999</v>
+      </c>
+      <c r="AS2">
+        <v>0.72089999999999999</v>
+      </c>
+      <c r="AT2">
+        <v>0.73060000000000003</v>
+      </c>
+      <c r="AU2">
+        <v>0.72330000000000005</v>
+      </c>
+      <c r="AV2">
+        <v>0.76959999999999995</v>
+      </c>
+      <c r="AW2">
+        <v>0.74129999999999996</v>
+      </c>
+      <c r="AX2">
         <v>0.72340000000000004</v>
-      </c>
-      <c r="AQ2">
-        <v>0.73670000000000002</v>
-      </c>
-      <c r="AR2">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="AS2">
-        <v>0.71</v>
-      </c>
-      <c r="AT2">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="AU2">
-        <v>0.71830000000000005</v>
-      </c>
-      <c r="AV2">
-        <v>0.75070000000000003</v>
-      </c>
-      <c r="AW2">
-        <v>0.70520000000000005</v>
-      </c>
-      <c r="AX2">
-        <v>0.72740000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.74539999999999995</v>
+        <v>0.71609999999999996</v>
       </c>
       <c r="B3">
-        <v>0.68179999999999996</v>
+        <v>0.71630000000000005</v>
       </c>
       <c r="C3">
-        <v>0.73329999999999995</v>
+        <v>0.68269999999999997</v>
       </c>
       <c r="D3">
-        <v>0.68169999999999997</v>
+        <v>0.71740000000000004</v>
       </c>
       <c r="E3">
-        <v>0.72</v>
+        <v>0.65439999999999998</v>
       </c>
       <c r="F3">
+        <v>0.75980000000000003</v>
+      </c>
+      <c r="G3">
+        <v>0.70140000000000002</v>
+      </c>
+      <c r="H3">
+        <v>0.73480000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.7198</v>
+      </c>
+      <c r="J3">
+        <v>0.6875</v>
+      </c>
+      <c r="K3">
+        <v>0.70669999999999999</v>
+      </c>
+      <c r="L3">
+        <v>0.70420000000000005</v>
+      </c>
+      <c r="M3">
+        <v>0.66080000000000005</v>
+      </c>
+      <c r="N3">
+        <v>0.70950000000000002</v>
+      </c>
+      <c r="O3">
+        <v>0.72030000000000005</v>
+      </c>
+      <c r="P3">
+        <v>0.7419</v>
+      </c>
+      <c r="Q3">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="R3">
+        <v>0.74490000000000001</v>
+      </c>
+      <c r="S3">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="T3">
+        <v>0.70640000000000003</v>
+      </c>
+      <c r="U3">
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="V3">
         <v>0.70789999999999997</v>
       </c>
-      <c r="G3">
-        <v>0.69359999999999999</v>
-      </c>
-      <c r="H3">
-        <v>0.71030000000000004</v>
-      </c>
-      <c r="I3">
-        <v>0.71220000000000006</v>
-      </c>
-      <c r="J3">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="K3">
-        <v>0.72009999999999996</v>
-      </c>
-      <c r="L3">
-        <v>0.70609999999999995</v>
-      </c>
-      <c r="M3">
-        <v>0.69740000000000002</v>
-      </c>
-      <c r="N3">
-        <v>0.70089999999999997</v>
-      </c>
-      <c r="O3">
-        <v>0.70150000000000001</v>
-      </c>
-      <c r="P3">
-        <v>0.70209999999999995</v>
-      </c>
-      <c r="Q3">
-        <v>0.70569999999999999</v>
-      </c>
-      <c r="R3">
-        <v>0.72740000000000005</v>
-      </c>
-      <c r="S3">
-        <v>0.70579999999999998</v>
-      </c>
-      <c r="T3">
-        <v>0.71379999999999999</v>
-      </c>
-      <c r="U3">
-        <v>0.71209999999999996</v>
-      </c>
-      <c r="V3">
-        <v>0.69389999999999996</v>
-      </c>
       <c r="W3">
-        <v>0.67800000000000005</v>
+        <v>0.74129999999999996</v>
       </c>
       <c r="X3">
-        <v>0.69969999999999999</v>
+        <v>0.69569999999999999</v>
       </c>
       <c r="Y3">
-        <v>0.70289999999999997</v>
+        <v>0.6956</v>
       </c>
       <c r="Z3">
-        <v>0.71050000000000002</v>
+        <v>0.71309999999999996</v>
       </c>
       <c r="AA3">
-        <v>0.69530000000000003</v>
+        <v>0.66420000000000001</v>
       </c>
       <c r="AB3">
-        <v>0.68759999999999999</v>
+        <v>0.73029999999999995</v>
       </c>
       <c r="AC3">
-        <v>0.73560000000000003</v>
+        <v>0.69669999999999999</v>
       </c>
       <c r="AD3">
+        <v>0.67410000000000003</v>
+      </c>
+      <c r="AE3">
+        <v>0.69730000000000003</v>
+      </c>
+      <c r="AF3">
         <v>0.68569999999999998</v>
       </c>
-      <c r="AE3">
-        <v>0.70779999999999998</v>
-      </c>
-      <c r="AF3">
-        <v>0.70330000000000004</v>
-      </c>
       <c r="AG3">
-        <v>0.72070000000000001</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="AH3">
-        <v>0.72670000000000001</v>
+        <v>0.70450000000000002</v>
       </c>
       <c r="AI3">
-        <v>0.67210000000000003</v>
+        <v>0.71289999999999998</v>
       </c>
       <c r="AJ3">
-        <v>0.69699999999999995</v>
+        <v>0.67889999999999995</v>
       </c>
       <c r="AK3">
-        <v>0.73219999999999996</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="AL3">
-        <v>0.67379999999999995</v>
+        <v>0.70179999999999998</v>
       </c>
       <c r="AM3">
-        <v>0.72719999999999996</v>
+        <v>0.74950000000000006</v>
       </c>
       <c r="AN3">
-        <v>0.72499999999999998</v>
+        <v>0.73309999999999997</v>
       </c>
       <c r="AO3">
-        <v>0.70489999999999997</v>
+        <v>0.7137</v>
       </c>
       <c r="AP3">
-        <v>0.68799999999999994</v>
+        <v>0.69269999999999998</v>
       </c>
       <c r="AQ3">
-        <v>0.72989999999999999</v>
+        <v>0.7157</v>
       </c>
       <c r="AR3">
-        <v>0.70409999999999995</v>
+        <v>0.7006</v>
       </c>
       <c r="AS3">
-        <v>0.6754</v>
+        <v>0.70840000000000003</v>
       </c>
       <c r="AT3">
-        <v>0.71579999999999999</v>
+        <v>0.71689999999999998</v>
       </c>
       <c r="AU3">
-        <v>0.7157</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="AV3">
-        <v>0.71130000000000004</v>
+        <v>0.74509999999999998</v>
       </c>
       <c r="AW3">
-        <v>0.68730000000000002</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="AX3">
-        <v>0.70250000000000001</v>
+        <v>0.6895</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.70030000000000003</v>
+        <v>0.68640000000000001</v>
       </c>
       <c r="B4">
-        <v>0.64380000000000004</v>
+        <v>0.67710000000000004</v>
       </c>
       <c r="C4">
-        <v>0.69089999999999996</v>
+        <v>0.6623</v>
       </c>
       <c r="D4">
-        <v>0.67249999999999999</v>
+        <v>0.69369999999999998</v>
       </c>
       <c r="E4">
-        <v>0.70650000000000002</v>
+        <v>0.62529999999999997</v>
       </c>
       <c r="F4">
-        <v>0.70440000000000003</v>
+        <v>0.73470000000000002</v>
       </c>
       <c r="G4">
-        <v>0.65959999999999996</v>
+        <v>0.66810000000000003</v>
       </c>
       <c r="H4">
-        <v>0.68389999999999995</v>
+        <v>0.71230000000000004</v>
       </c>
       <c r="I4">
-        <v>0.66190000000000004</v>
+        <v>0.68240000000000001</v>
       </c>
       <c r="J4">
-        <v>0.7177</v>
+        <v>0.67669999999999997</v>
       </c>
       <c r="K4">
-        <v>0.71850000000000003</v>
+        <v>0.67410000000000003</v>
       </c>
       <c r="L4">
-        <v>0.67659999999999998</v>
+        <v>0.67320000000000002</v>
       </c>
       <c r="M4">
-        <v>0.68940000000000001</v>
+        <v>0.65510000000000002</v>
       </c>
       <c r="N4">
-        <v>0.69010000000000005</v>
+        <v>0.70279999999999998</v>
       </c>
       <c r="O4">
-        <v>0.68920000000000003</v>
+        <v>0.69330000000000003</v>
       </c>
       <c r="P4">
-        <v>0.69089999999999996</v>
+        <v>0.70609999999999995</v>
       </c>
       <c r="Q4">
-        <v>0.68679999999999997</v>
+        <v>0.70140000000000002</v>
       </c>
       <c r="R4">
-        <v>0.69510000000000005</v>
+        <v>0.72940000000000005</v>
       </c>
       <c r="S4">
-        <v>0.69579999999999997</v>
+        <v>0.68510000000000004</v>
       </c>
       <c r="T4">
-        <v>0.67789999999999995</v>
+        <v>0.69779999999999998</v>
       </c>
       <c r="U4">
-        <v>0.7026</v>
+        <v>0.67020000000000002</v>
       </c>
       <c r="V4">
-        <v>0.68310000000000004</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="W4">
-        <v>0.6532</v>
+        <v>0.7087</v>
       </c>
       <c r="X4">
-        <v>0.66190000000000004</v>
+        <v>0.6946</v>
       </c>
       <c r="Y4">
-        <v>0.64739999999999998</v>
+        <v>0.68640000000000001</v>
       </c>
       <c r="Z4">
-        <v>0.68930000000000002</v>
+        <v>0.69430000000000003</v>
       </c>
       <c r="AA4">
-        <v>0.69069999999999998</v>
+        <v>0.66649999999999998</v>
       </c>
       <c r="AB4">
-        <v>0.66969999999999996</v>
+        <v>0.71389999999999998</v>
       </c>
       <c r="AC4">
-        <v>0.70199999999999996</v>
+        <v>0.6804</v>
       </c>
       <c r="AD4">
-        <v>0.66579999999999995</v>
+        <v>0.63660000000000005</v>
       </c>
       <c r="AE4">
-        <v>0.70669999999999999</v>
+        <v>0.68540000000000001</v>
       </c>
       <c r="AF4">
-        <v>0.70509999999999995</v>
+        <v>0.65939999999999999</v>
       </c>
       <c r="AG4">
-        <v>0.70430000000000004</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="AH4">
-        <v>0.72040000000000004</v>
+        <v>0.69620000000000004</v>
       </c>
       <c r="AI4">
-        <v>0.68840000000000001</v>
+        <v>0.67959999999999998</v>
       </c>
       <c r="AJ4">
-        <v>0.6724</v>
+        <v>0.64990000000000003</v>
       </c>
       <c r="AK4">
-        <v>0.72260000000000002</v>
+        <v>0.68240000000000001</v>
       </c>
       <c r="AL4">
+        <v>0.6835</v>
+      </c>
+      <c r="AM4">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="AN4">
+        <v>0.69820000000000004</v>
+      </c>
+      <c r="AO4">
+        <v>0.70540000000000003</v>
+      </c>
+      <c r="AP4">
+        <v>0.69359999999999999</v>
+      </c>
+      <c r="AQ4">
+        <v>0.70640000000000003</v>
+      </c>
+      <c r="AR4">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AS4">
+        <v>0.67769999999999997</v>
+      </c>
+      <c r="AT4">
+        <v>0.66759999999999997</v>
+      </c>
+      <c r="AU4">
         <v>0.65239999999999998</v>
       </c>
-      <c r="AM4">
-        <v>0.69640000000000002</v>
-      </c>
-      <c r="AN4">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AO4">
-        <v>0.67710000000000004</v>
-      </c>
-      <c r="AP4">
-        <v>0.68</v>
-      </c>
-      <c r="AQ4">
-        <v>0.72350000000000003</v>
-      </c>
-      <c r="AR4">
-        <v>0.68520000000000003</v>
-      </c>
-      <c r="AS4">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="AT4">
-        <v>0.69110000000000005</v>
-      </c>
-      <c r="AU4">
-        <v>0.69379999999999997</v>
-      </c>
       <c r="AV4">
-        <v>0.69299999999999995</v>
+        <v>0.70730000000000004</v>
       </c>
       <c r="AW4">
-        <v>0.68110000000000004</v>
+        <v>0.68059999999999998</v>
       </c>
       <c r="AX4">
-        <v>0.68210000000000004</v>
+        <v>0.66620000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.69599999999999995</v>
+        <v>0.66139999999999999</v>
       </c>
       <c r="B5">
-        <v>0.61409999999999998</v>
+        <v>0.66490000000000005</v>
       </c>
       <c r="C5">
-        <v>0.66920000000000002</v>
+        <v>0.65969999999999995</v>
       </c>
       <c r="D5">
-        <v>0.65129999999999999</v>
+        <v>0.66869999999999996</v>
       </c>
       <c r="E5">
-        <v>0.6764</v>
+        <v>0.64080000000000004</v>
       </c>
       <c r="F5">
-        <v>0.69550000000000001</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="G5">
-        <v>0.6159</v>
+        <v>0.65720000000000001</v>
       </c>
       <c r="H5">
+        <v>0.69679999999999997</v>
+      </c>
+      <c r="I5">
+        <v>0.67130000000000001</v>
+      </c>
+      <c r="J5">
+        <v>0.6623</v>
+      </c>
+      <c r="K5">
+        <v>0.63919999999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.66990000000000005</v>
+      </c>
+      <c r="M5">
+        <v>0.62880000000000003</v>
+      </c>
+      <c r="N5">
+        <v>0.67290000000000005</v>
+      </c>
+      <c r="O5">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="P5">
+        <v>0.70240000000000002</v>
+      </c>
+      <c r="Q5">
+        <v>0.69220000000000004</v>
+      </c>
+      <c r="R5">
+        <v>0.70489999999999997</v>
+      </c>
+      <c r="S5">
+        <v>0.65910000000000002</v>
+      </c>
+      <c r="T5">
+        <v>0.69210000000000005</v>
+      </c>
+      <c r="U5">
+        <v>0.66969999999999996</v>
+      </c>
+      <c r="V5">
+        <v>0.67410000000000003</v>
+      </c>
+      <c r="W5">
+        <v>0.69810000000000005</v>
+      </c>
+      <c r="X5">
+        <v>0.66349999999999998</v>
+      </c>
+      <c r="Y5">
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="Z5">
+        <v>0.66590000000000005</v>
+      </c>
+      <c r="AA5">
+        <v>0.66520000000000001</v>
+      </c>
+      <c r="AB5">
+        <v>0.70509999999999995</v>
+      </c>
+      <c r="AC5">
+        <v>0.68220000000000003</v>
+      </c>
+      <c r="AD5">
+        <v>0.6018</v>
+      </c>
+      <c r="AE5">
+        <v>0.68159999999999998</v>
+      </c>
+      <c r="AF5">
+        <v>0.6472</v>
+      </c>
+      <c r="AG5">
+        <v>0.62490000000000001</v>
+      </c>
+      <c r="AH5">
+        <v>0.67379999999999995</v>
+      </c>
+      <c r="AI5">
+        <v>0.68159999999999998</v>
+      </c>
+      <c r="AJ5">
+        <v>0.63939999999999997</v>
+      </c>
+      <c r="AK5">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="AL5">
+        <v>0.67979999999999996</v>
+      </c>
+      <c r="AM5">
+        <v>0.70750000000000002</v>
+      </c>
+      <c r="AN5">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="AO5">
+        <v>0.70350000000000001</v>
+      </c>
+      <c r="AP5">
+        <v>0.68189999999999995</v>
+      </c>
+      <c r="AQ5">
+        <v>0.70309999999999995</v>
+      </c>
+      <c r="AR5">
+        <v>0.6825</v>
+      </c>
+      <c r="AS5">
+        <v>0.65790000000000004</v>
+      </c>
+      <c r="AT5">
+        <v>0.67479999999999996</v>
+      </c>
+      <c r="AU5">
+        <v>0.64639999999999997</v>
+      </c>
+      <c r="AV5">
+        <v>0.70089999999999997</v>
+      </c>
+      <c r="AW5">
         <v>0.67</v>
       </c>
-      <c r="I5">
-        <v>0.6663</v>
-      </c>
-      <c r="J5">
-        <v>0.68840000000000001</v>
-      </c>
-      <c r="K5">
-        <v>0.70589999999999997</v>
-      </c>
-      <c r="L5">
-        <v>0.67279999999999995</v>
-      </c>
-      <c r="M5">
-        <v>0.67449999999999999</v>
-      </c>
-      <c r="N5">
-        <v>0.67430000000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.66249999999999998</v>
-      </c>
-      <c r="P5">
-        <v>0.67059999999999997</v>
-      </c>
-      <c r="Q5">
-        <v>0.66820000000000002</v>
-      </c>
-      <c r="R5">
-        <v>0.7036</v>
-      </c>
-      <c r="S5">
-        <v>0.68720000000000003</v>
-      </c>
-      <c r="T5">
-        <v>0.62939999999999996</v>
-      </c>
-      <c r="U5">
-        <v>0.69289999999999996</v>
-      </c>
-      <c r="V5">
-        <v>0.67479999999999996</v>
-      </c>
-      <c r="W5">
-        <v>0.65110000000000001</v>
-      </c>
-      <c r="X5">
-        <v>0.66569999999999996</v>
-      </c>
-      <c r="Y5">
-        <v>0.6452</v>
-      </c>
-      <c r="Z5">
-        <v>0.67220000000000002</v>
-      </c>
-      <c r="AA5">
-        <v>0.66779999999999995</v>
-      </c>
-      <c r="AB5">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="AC5">
-        <v>0.6915</v>
-      </c>
-      <c r="AD5">
-        <v>0.65190000000000003</v>
-      </c>
-      <c r="AE5">
-        <v>0.6915</v>
-      </c>
-      <c r="AF5">
-        <v>0.69979999999999998</v>
-      </c>
-      <c r="AG5">
-        <v>0.69210000000000005</v>
-      </c>
-      <c r="AH5">
-        <v>0.70689999999999997</v>
-      </c>
-      <c r="AI5">
-        <v>0.66890000000000005</v>
-      </c>
-      <c r="AJ5">
-        <v>0.67169999999999996</v>
-      </c>
-      <c r="AK5">
-        <v>0.68969999999999998</v>
-      </c>
-      <c r="AL5">
-        <v>0.65129999999999999</v>
-      </c>
-      <c r="AM5">
-        <v>0.67720000000000002</v>
-      </c>
-      <c r="AN5">
-        <v>0.68889999999999996</v>
-      </c>
-      <c r="AO5">
-        <v>0.67090000000000005</v>
-      </c>
-      <c r="AP5">
-        <v>0.64790000000000003</v>
-      </c>
-      <c r="AQ5">
-        <v>0.71360000000000001</v>
-      </c>
-      <c r="AR5">
-        <v>0.68869999999999998</v>
-      </c>
-      <c r="AS5">
-        <v>0.62960000000000005</v>
-      </c>
-      <c r="AT5">
-        <v>0.66769999999999996</v>
-      </c>
-      <c r="AU5">
-        <v>0.67279999999999995</v>
-      </c>
-      <c r="AV5">
-        <v>0.69120000000000004</v>
-      </c>
-      <c r="AW5">
-        <v>0.67400000000000004</v>
-      </c>
       <c r="AX5">
-        <v>0.66920000000000002</v>
+        <v>0.68369999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.6865</v>
+        <v>0.65869999999999995</v>
       </c>
       <c r="B6">
-        <v>0.64419999999999999</v>
+        <v>0.63329999999999997</v>
       </c>
       <c r="C6">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="D6">
+        <v>0.64690000000000003</v>
+      </c>
+      <c r="E6">
+        <v>0.63139999999999996</v>
+      </c>
+      <c r="F6">
+        <v>0.68759999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="H6">
+        <v>0.6875</v>
+      </c>
+      <c r="I6">
+        <v>0.6391</v>
+      </c>
+      <c r="J6">
         <v>0.64770000000000005</v>
       </c>
-      <c r="D6">
-        <v>0.66710000000000003</v>
-      </c>
-      <c r="E6">
-        <v>0.69720000000000004</v>
-      </c>
-      <c r="F6">
-        <v>0.66739999999999999</v>
-      </c>
-      <c r="G6">
-        <v>0.60240000000000005</v>
-      </c>
-      <c r="H6">
-        <v>0.65780000000000005</v>
-      </c>
-      <c r="I6">
-        <v>0.66049999999999998</v>
-      </c>
-      <c r="J6">
+      <c r="K6">
+        <v>0.63139999999999996</v>
+      </c>
+      <c r="L6">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="M6">
+        <v>0.64090000000000003</v>
+      </c>
+      <c r="N6">
+        <v>0.67479999999999996</v>
+      </c>
+      <c r="O6">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="P6">
+        <v>0.68730000000000002</v>
+      </c>
+      <c r="Q6">
+        <v>0.68210000000000004</v>
+      </c>
+      <c r="R6">
+        <v>0.67989999999999995</v>
+      </c>
+      <c r="S6">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="T6">
+        <v>0.68389999999999995</v>
+      </c>
+      <c r="U6">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="V6">
+        <v>0.67779999999999996</v>
+      </c>
+      <c r="W6">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="X6">
+        <v>0.62609999999999999</v>
+      </c>
+      <c r="Y6">
+        <v>0.65939999999999999</v>
+      </c>
+      <c r="Z6">
+        <v>0.66420000000000001</v>
+      </c>
+      <c r="AA6">
+        <v>0.66310000000000002</v>
+      </c>
+      <c r="AB6">
+        <v>0.6875</v>
+      </c>
+      <c r="AC6">
+        <v>0.68269999999999997</v>
+      </c>
+      <c r="AD6">
+        <v>0.60109999999999997</v>
+      </c>
+      <c r="AE6">
+        <v>0.6895</v>
+      </c>
+      <c r="AF6">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="AG6">
+        <v>0.64929999999999999</v>
+      </c>
+      <c r="AH6">
+        <v>0.6694</v>
+      </c>
+      <c r="AI6">
+        <v>0.65590000000000004</v>
+      </c>
+      <c r="AJ6">
+        <v>0.62529999999999997</v>
+      </c>
+      <c r="AK6">
+        <v>0.67820000000000003</v>
+      </c>
+      <c r="AL6">
+        <v>0.68869999999999998</v>
+      </c>
+      <c r="AM6">
+        <v>0.69020000000000004</v>
+      </c>
+      <c r="AN6">
+        <v>0.65059999999999996</v>
+      </c>
+      <c r="AO6">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="AP6">
+        <v>0.66679999999999995</v>
+      </c>
+      <c r="AQ6">
+        <v>0.67490000000000006</v>
+      </c>
+      <c r="AR6">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="AS6">
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="AT6">
+        <v>0.66879999999999995</v>
+      </c>
+      <c r="AU6">
+        <v>0.62719999999999998</v>
+      </c>
+      <c r="AV6">
+        <v>0.68369999999999997</v>
+      </c>
+      <c r="AW6">
+        <v>0.65680000000000005</v>
+      </c>
+      <c r="AX6">
         <v>0.68169999999999997</v>
-      </c>
-      <c r="K6">
-        <v>0.69110000000000005</v>
-      </c>
-      <c r="L6">
-        <v>0.67649999999999999</v>
-      </c>
-      <c r="M6">
-        <v>0.66259999999999997</v>
-      </c>
-      <c r="N6">
-        <v>0.68469999999999998</v>
-      </c>
-      <c r="O6">
-        <v>0.66849999999999998</v>
-      </c>
-      <c r="P6">
-        <v>0.65629999999999999</v>
-      </c>
-      <c r="Q6">
-        <v>0.67359999999999998</v>
-      </c>
-      <c r="R6">
-        <v>0.70009999999999994</v>
-      </c>
-      <c r="S6">
-        <v>0.68020000000000003</v>
-      </c>
-      <c r="T6">
-        <v>0.65359999999999996</v>
-      </c>
-      <c r="U6">
-        <v>0.69120000000000004</v>
-      </c>
-      <c r="V6">
-        <v>0.67979999999999996</v>
-      </c>
-      <c r="W6">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="X6">
-        <v>0.64290000000000003</v>
-      </c>
-      <c r="Y6">
-        <v>0.64980000000000004</v>
-      </c>
-      <c r="Z6">
-        <v>0.67579999999999996</v>
-      </c>
-      <c r="AA6">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="AB6">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="AC6">
-        <v>0.67330000000000001</v>
-      </c>
-      <c r="AD6">
-        <v>0.65510000000000002</v>
-      </c>
-      <c r="AE6">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="AF6">
-        <v>0.67830000000000001</v>
-      </c>
-      <c r="AG6">
-        <v>0.67390000000000005</v>
-      </c>
-      <c r="AH6">
-        <v>0.71120000000000005</v>
-      </c>
-      <c r="AI6">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="AJ6">
-        <v>0.66839999999999999</v>
-      </c>
-      <c r="AK6">
-        <v>0.68840000000000001</v>
-      </c>
-      <c r="AL6">
-        <v>0.65059999999999996</v>
-      </c>
-      <c r="AM6">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="AN6">
-        <v>0.65980000000000005</v>
-      </c>
-      <c r="AO6">
-        <v>0.66220000000000001</v>
-      </c>
-      <c r="AP6">
-        <v>0.63980000000000004</v>
-      </c>
-      <c r="AQ6">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="AR6">
-        <v>0.67620000000000002</v>
-      </c>
-      <c r="AS6">
-        <v>0.622</v>
-      </c>
-      <c r="AT6">
-        <v>0.66849999999999998</v>
-      </c>
-      <c r="AU6">
-        <v>0.66110000000000002</v>
-      </c>
-      <c r="AV6">
-        <v>0.70020000000000004</v>
-      </c>
-      <c r="AW6">
-        <v>0.65459999999999996</v>
-      </c>
-      <c r="AX6">
-        <v>0.67910000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.68610000000000004</v>
+        <v>0.6371</v>
       </c>
       <c r="B7">
-        <v>0.62690000000000001</v>
+        <v>0.64929999999999999</v>
       </c>
       <c r="C7">
-        <v>0.66669999999999996</v>
+        <v>0.65129999999999999</v>
       </c>
       <c r="D7">
-        <v>0.66920000000000002</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="E7">
-        <v>0.67889999999999995</v>
+        <v>0.61270000000000002</v>
       </c>
       <c r="F7">
+        <v>0.68930000000000002</v>
+      </c>
+      <c r="G7">
+        <v>0.63680000000000003</v>
+      </c>
+      <c r="H7">
+        <v>0.69469999999999998</v>
+      </c>
+      <c r="I7">
+        <v>0.64429999999999998</v>
+      </c>
+      <c r="J7">
+        <v>0.63890000000000002</v>
+      </c>
+      <c r="K7">
+        <v>0.63349999999999995</v>
+      </c>
+      <c r="L7">
+        <v>0.65969999999999995</v>
+      </c>
+      <c r="M7">
+        <v>0.63849999999999996</v>
+      </c>
+      <c r="N7">
+        <v>0.66830000000000001</v>
+      </c>
+      <c r="O7">
         <v>0.66590000000000005</v>
       </c>
-      <c r="G7">
-        <v>0.60860000000000003</v>
-      </c>
-      <c r="H7">
-        <v>0.63819999999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.64629999999999999</v>
-      </c>
-      <c r="J7">
-        <v>0.68359999999999999</v>
-      </c>
-      <c r="K7">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="L7">
-        <v>0.65410000000000001</v>
-      </c>
-      <c r="M7">
-        <v>0.66679999999999995</v>
-      </c>
-      <c r="N7">
-        <v>0.68440000000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.67559999999999998</v>
-      </c>
       <c r="P7">
-        <v>0.64470000000000005</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="Q7">
-        <v>0.66379999999999995</v>
+        <v>0.65349999999999997</v>
       </c>
       <c r="R7">
-        <v>0.70569999999999999</v>
+        <v>0.67879999999999996</v>
       </c>
       <c r="S7">
-        <v>0.67369999999999997</v>
+        <v>0.63990000000000002</v>
       </c>
       <c r="T7">
-        <v>0.66720000000000002</v>
+        <v>0.6502</v>
       </c>
       <c r="U7">
-        <v>0.69210000000000005</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="V7">
-        <v>0.67549999999999999</v>
+        <v>0.65649999999999997</v>
       </c>
       <c r="W7">
-        <v>0.61119999999999997</v>
+        <v>0.7</v>
       </c>
       <c r="X7">
-        <v>0.64459999999999995</v>
+        <v>0.63380000000000003</v>
       </c>
       <c r="Y7">
-        <v>0.65600000000000003</v>
+        <v>0.6391</v>
       </c>
       <c r="Z7">
-        <v>0.65339999999999998</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="AA7">
-        <v>0.68049999999999999</v>
+        <v>0.6764</v>
       </c>
       <c r="AB7">
-        <v>0.66820000000000002</v>
+        <v>0.67679999999999996</v>
       </c>
       <c r="AC7">
+        <v>0.69450000000000001</v>
+      </c>
+      <c r="AD7">
+        <v>0.58260000000000001</v>
+      </c>
+      <c r="AE7">
+        <v>0.68159999999999998</v>
+      </c>
+      <c r="AF7">
+        <v>0.63890000000000002</v>
+      </c>
+      <c r="AG7">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="AH7">
+        <v>0.66020000000000001</v>
+      </c>
+      <c r="AI7">
+        <v>0.67469999999999997</v>
+      </c>
+      <c r="AJ7">
+        <v>0.63980000000000004</v>
+      </c>
+      <c r="AK7">
+        <v>0.6825</v>
+      </c>
+      <c r="AL7">
         <v>0.67290000000000005</v>
       </c>
-      <c r="AD7">
-        <v>0.63539999999999996</v>
-      </c>
-      <c r="AE7">
-        <v>0.66930000000000001</v>
-      </c>
-      <c r="AF7">
-        <v>0.68189999999999995</v>
-      </c>
-      <c r="AG7">
-        <v>0.67549999999999999</v>
-      </c>
-      <c r="AH7">
-        <v>0.69120000000000004</v>
-      </c>
-      <c r="AI7">
-        <v>0.67820000000000003</v>
-      </c>
-      <c r="AJ7">
-        <v>0.66549999999999998</v>
-      </c>
-      <c r="AK7">
-        <v>0.66510000000000002</v>
-      </c>
-      <c r="AL7">
-        <v>0.66500000000000004</v>
-      </c>
       <c r="AM7">
-        <v>0.65700000000000003</v>
+        <v>0.69910000000000005</v>
       </c>
       <c r="AN7">
-        <v>0.65949999999999998</v>
+        <v>0.63339999999999996</v>
       </c>
       <c r="AO7">
-        <v>0.64580000000000004</v>
+        <v>0.67859999999999998</v>
       </c>
       <c r="AP7">
-        <v>0.63839999999999997</v>
+        <v>0.67620000000000002</v>
       </c>
       <c r="AQ7">
-        <v>0.68210000000000004</v>
+        <v>0.66790000000000005</v>
       </c>
       <c r="AR7">
-        <v>0.67810000000000004</v>
+        <v>0.67330000000000001</v>
       </c>
       <c r="AS7">
-        <v>0.622</v>
+        <v>0.6573</v>
       </c>
       <c r="AT7">
-        <v>0.68740000000000001</v>
+        <v>0.67030000000000001</v>
       </c>
       <c r="AU7">
-        <v>0.6613</v>
+        <v>0.61309999999999998</v>
       </c>
       <c r="AV7">
-        <v>0.71030000000000004</v>
+        <v>0.67410000000000003</v>
       </c>
       <c r="AW7">
-        <v>0.65610000000000002</v>
+        <v>0.66359999999999997</v>
       </c>
       <c r="AX7">
-        <v>0.6603</v>
+        <v>0.66349999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.67730000000000001</v>
+        <v>0.63560000000000005</v>
       </c>
       <c r="B8">
-        <v>0.60229999999999995</v>
+        <v>0.64349999999999996</v>
       </c>
       <c r="C8">
-        <v>0.66469999999999996</v>
+        <v>0.65410000000000001</v>
       </c>
       <c r="D8">
-        <v>0.66479999999999995</v>
+        <v>0.64639999999999997</v>
       </c>
       <c r="E8">
-        <v>0.66539999999999999</v>
+        <v>0.59370000000000001</v>
       </c>
       <c r="F8">
-        <v>0.65100000000000002</v>
+        <v>0.69359999999999999</v>
       </c>
       <c r="G8">
-        <v>0.62949999999999995</v>
+        <v>0.65059999999999996</v>
       </c>
       <c r="H8">
-        <v>0.62729999999999997</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="I8">
-        <v>0.65149999999999997</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="J8">
-        <v>0.67630000000000001</v>
+        <v>0.65969999999999995</v>
       </c>
       <c r="K8">
+        <v>0.625</v>
+      </c>
+      <c r="L8">
+        <v>0.65349999999999997</v>
+      </c>
+      <c r="M8">
+        <v>0.63929999999999998</v>
+      </c>
+      <c r="N8">
+        <v>0.67469999999999997</v>
+      </c>
+      <c r="O8">
+        <v>0.66439999999999999</v>
+      </c>
+      <c r="P8">
         <v>0.66139999999999999</v>
       </c>
-      <c r="L8">
-        <v>0.64729999999999999</v>
-      </c>
-      <c r="M8">
-        <v>0.65529999999999999</v>
-      </c>
-      <c r="N8">
-        <v>0.66249999999999998</v>
-      </c>
-      <c r="O8">
-        <v>0.65939999999999999</v>
-      </c>
-      <c r="P8">
-        <v>0.64129999999999998</v>
-      </c>
       <c r="Q8">
-        <v>0.66669999999999996</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="R8">
-        <v>0.67279999999999995</v>
+        <v>0.67069999999999996</v>
       </c>
       <c r="S8">
-        <v>0.65380000000000005</v>
+        <v>0.63249999999999995</v>
       </c>
       <c r="T8">
-        <v>0.64829999999999999</v>
+        <v>0.68089999999999995</v>
       </c>
       <c r="U8">
-        <v>0.68220000000000003</v>
+        <v>0.67090000000000005</v>
       </c>
       <c r="V8">
-        <v>0.66669999999999996</v>
+        <v>0.64090000000000003</v>
       </c>
       <c r="W8">
-        <v>0.62909999999999999</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="X8">
-        <v>0.6421</v>
+        <v>0.64359999999999995</v>
       </c>
       <c r="Y8">
-        <v>0.64939999999999998</v>
+        <v>0.63529999999999998</v>
       </c>
       <c r="Z8">
+        <v>0.66269999999999996</v>
+      </c>
+      <c r="AA8">
         <v>0.65600000000000003</v>
       </c>
-      <c r="AA8">
-        <v>0.66659999999999997</v>
-      </c>
       <c r="AB8">
-        <v>0.68089999999999995</v>
+        <v>0.65880000000000005</v>
       </c>
       <c r="AC8">
-        <v>0.6724</v>
+        <v>0.68869999999999998</v>
       </c>
       <c r="AD8">
-        <v>0.64439999999999997</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="AE8">
-        <v>0.68169999999999997</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="AF8">
-        <v>0.68810000000000004</v>
+        <v>0.62309999999999999</v>
       </c>
       <c r="AG8">
-        <v>0.67100000000000004</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="AH8">
+        <v>0.67149999999999999</v>
+      </c>
+      <c r="AI8">
+        <v>0.67579999999999996</v>
+      </c>
+      <c r="AJ8">
+        <v>0.62990000000000002</v>
+      </c>
+      <c r="AK8">
+        <v>0.67510000000000003</v>
+      </c>
+      <c r="AL8">
         <v>0.67620000000000002</v>
       </c>
-      <c r="AI8">
-        <v>0.66959999999999997</v>
-      </c>
-      <c r="AJ8">
-        <v>0.66639999999999999</v>
-      </c>
-      <c r="AK8">
-        <v>0.67469999999999997</v>
-      </c>
-      <c r="AL8">
-        <v>0.64590000000000003</v>
-      </c>
       <c r="AM8">
-        <v>0.64629999999999999</v>
+        <v>0.67520000000000002</v>
       </c>
       <c r="AN8">
-        <v>0.6573</v>
+        <v>0.65259999999999996</v>
       </c>
       <c r="AO8">
-        <v>0.62360000000000004</v>
+        <v>0.67290000000000005</v>
       </c>
       <c r="AP8">
-        <v>0.63990000000000002</v>
+        <v>0.67130000000000001</v>
       </c>
       <c r="AQ8">
-        <v>0.67589999999999995</v>
+        <v>0.65880000000000005</v>
       </c>
       <c r="AR8">
-        <v>0.67459999999999998</v>
+        <v>0.65959999999999996</v>
       </c>
       <c r="AS8">
-        <v>0.62219999999999998</v>
+        <v>0.629</v>
       </c>
       <c r="AT8">
-        <v>0.68149999999999999</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="AU8">
-        <v>0.65800000000000003</v>
+        <v>0.60560000000000003</v>
       </c>
       <c r="AV8">
-        <v>0.69769999999999999</v>
+        <v>0.66139999999999999</v>
       </c>
       <c r="AW8">
-        <v>0.62819999999999998</v>
+        <v>0.6542</v>
       </c>
       <c r="AX8">
-        <v>0.66869999999999996</v>
+        <v>0.65849999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.68059999999999998</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="B9">
-        <v>0.60029999999999994</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="C9">
-        <v>0.65129999999999999</v>
+        <v>0.64039999999999997</v>
       </c>
       <c r="D9">
-        <v>0.65080000000000005</v>
+        <v>0.64990000000000003</v>
       </c>
       <c r="E9">
-        <v>0.66180000000000005</v>
+        <v>0.58760000000000001</v>
       </c>
       <c r="F9">
-        <v>0.65739999999999998</v>
+        <v>0.66979999999999995</v>
       </c>
       <c r="G9">
-        <v>0.61550000000000005</v>
+        <v>0.63929999999999998</v>
       </c>
       <c r="H9">
-        <v>0.63180000000000003</v>
+        <v>0.66869999999999996</v>
       </c>
       <c r="I9">
-        <v>0.65700000000000003</v>
+        <v>0.63229999999999997</v>
       </c>
       <c r="J9">
-        <v>0.67620000000000002</v>
+        <v>0.64870000000000005</v>
       </c>
       <c r="K9">
-        <v>0.65949999999999998</v>
+        <v>0.61480000000000001</v>
       </c>
       <c r="L9">
-        <v>0.64959999999999996</v>
+        <v>0.64419999999999999</v>
       </c>
       <c r="M9">
-        <v>0.66290000000000004</v>
+        <v>0.63229999999999997</v>
       </c>
       <c r="N9">
-        <v>0.66720000000000002</v>
+        <v>0.67269999999999996</v>
       </c>
       <c r="O9">
-        <v>0.65910000000000002</v>
+        <v>0.67859999999999998</v>
       </c>
       <c r="P9">
-        <v>0.64549999999999996</v>
+        <v>0.67130000000000001</v>
       </c>
       <c r="Q9">
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="R9">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="S9">
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="T9">
+        <v>0.67179999999999995</v>
+      </c>
+      <c r="U9">
+        <v>0.66059999999999997</v>
+      </c>
+      <c r="V9">
+        <v>0.65329999999999999</v>
+      </c>
+      <c r="W9">
+        <v>0.70750000000000002</v>
+      </c>
+      <c r="X9">
+        <v>0.63319999999999999</v>
+      </c>
+      <c r="Y9">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="Z9">
+        <v>0.65649999999999997</v>
+      </c>
+      <c r="AA9">
+        <v>0.67079999999999995</v>
+      </c>
+      <c r="AB9">
+        <v>0.65669999999999995</v>
+      </c>
+      <c r="AC9">
         <v>0.6673</v>
       </c>
-      <c r="R9">
-        <v>0.66739999999999999</v>
-      </c>
-      <c r="S9">
-        <v>0.64870000000000005</v>
-      </c>
-      <c r="T9">
-        <v>0.63290000000000002</v>
-      </c>
-      <c r="U9">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="V9">
-        <v>0.65269999999999995</v>
-      </c>
-      <c r="W9">
-        <v>0.62090000000000001</v>
-      </c>
-      <c r="X9">
-        <v>0.62909999999999999</v>
-      </c>
-      <c r="Y9">
-        <v>0.6472</v>
-      </c>
-      <c r="Z9">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="AA9">
-        <v>0.66490000000000005</v>
-      </c>
-      <c r="AB9">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="AC9">
-        <v>0.67900000000000005</v>
-      </c>
       <c r="AD9">
-        <v>0.65529999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="AE9">
-        <v>0.68089999999999995</v>
+        <v>0.67479999999999996</v>
       </c>
       <c r="AF9">
-        <v>0.67779999999999996</v>
+        <v>0.62690000000000001</v>
       </c>
       <c r="AG9">
-        <v>0.66790000000000005</v>
+        <v>0.63629999999999998</v>
       </c>
       <c r="AH9">
-        <v>0.6744</v>
+        <v>0.66149999999999998</v>
       </c>
       <c r="AI9">
-        <v>0.67249999999999999</v>
+        <v>0.66059999999999997</v>
       </c>
       <c r="AJ9">
-        <v>0.64949999999999997</v>
+        <v>0.63329999999999997</v>
       </c>
       <c r="AK9">
-        <v>0.66749999999999998</v>
+        <v>0.64970000000000006</v>
       </c>
       <c r="AL9">
-        <v>0.63749999999999996</v>
+        <v>0.65</v>
       </c>
       <c r="AM9">
-        <v>0.65080000000000005</v>
+        <v>0.67879999999999996</v>
       </c>
       <c r="AN9">
-        <v>0.66679999999999995</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="AO9">
-        <v>0.63460000000000005</v>
+        <v>0.66439999999999999</v>
       </c>
       <c r="AP9">
-        <v>0.63480000000000003</v>
+        <v>0.67679999999999996</v>
       </c>
       <c r="AQ9">
-        <v>0.66059999999999997</v>
+        <v>0.6573</v>
       </c>
       <c r="AR9">
-        <v>0.67100000000000004</v>
+        <v>0.66090000000000004</v>
       </c>
       <c r="AS9">
-        <v>0.63049999999999995</v>
+        <v>0.62370000000000003</v>
       </c>
       <c r="AT9">
-        <v>0.67589999999999995</v>
+        <v>0.67410000000000003</v>
       </c>
       <c r="AU9">
-        <v>0.65300000000000002</v>
+        <v>0.58889999999999998</v>
       </c>
       <c r="AV9">
-        <v>0.69569999999999999</v>
+        <v>0.65559999999999996</v>
       </c>
       <c r="AW9">
-        <v>0.62829999999999997</v>
+        <v>0.65659999999999996</v>
       </c>
       <c r="AX9">
-        <v>0.64790000000000003</v>
+        <v>0.64400000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.68389999999999995</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="B10">
-        <v>0.6169</v>
+        <v>0.62039999999999995</v>
       </c>
       <c r="C10">
-        <v>0.64500000000000002</v>
+        <v>0.64219999999999999</v>
       </c>
       <c r="D10">
-        <v>0.64270000000000005</v>
+        <v>0.61470000000000002</v>
       </c>
       <c r="E10">
-        <v>0.62960000000000005</v>
+        <v>0.59379999999999999</v>
       </c>
       <c r="F10">
-        <v>0.64959999999999996</v>
+        <v>0.68230000000000002</v>
       </c>
       <c r="G10">
-        <v>0.62080000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="H10">
-        <v>0.62909999999999999</v>
+        <v>0.66269999999999996</v>
       </c>
       <c r="I10">
-        <v>0.65100000000000002</v>
+        <v>0.64739999999999998</v>
       </c>
       <c r="J10">
-        <v>0.67130000000000001</v>
+        <v>0.63749999999999996</v>
       </c>
       <c r="K10">
-        <v>0.63729999999999998</v>
+        <v>0.60270000000000001</v>
       </c>
       <c r="L10">
-        <v>0.64780000000000004</v>
+        <v>0.63049999999999995</v>
       </c>
       <c r="M10">
+        <v>0.62939999999999996</v>
+      </c>
+      <c r="N10">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="O10">
+        <v>0.66920000000000002</v>
+      </c>
+      <c r="P10">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="Q10">
+        <v>0.65259999999999996</v>
+      </c>
+      <c r="R10">
+        <v>0.69669999999999999</v>
+      </c>
+      <c r="S10">
+        <v>0.61760000000000004</v>
+      </c>
+      <c r="T10">
+        <v>0.66080000000000005</v>
+      </c>
+      <c r="U10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="V10">
+        <v>0.63239999999999996</v>
+      </c>
+      <c r="W10">
+        <v>0.70389999999999997</v>
+      </c>
+      <c r="X10">
+        <v>0.61760000000000004</v>
+      </c>
+      <c r="Y10">
+        <v>0.61780000000000002</v>
+      </c>
+      <c r="Z10">
+        <v>0.64290000000000003</v>
+      </c>
+      <c r="AA10">
+        <v>0.65859999999999996</v>
+      </c>
+      <c r="AB10">
+        <v>0.6532</v>
+      </c>
+      <c r="AC10">
+        <v>0.64359999999999995</v>
+      </c>
+      <c r="AD10">
+        <v>0.5867</v>
+      </c>
+      <c r="AE10">
+        <v>0.6633</v>
+      </c>
+      <c r="AF10">
         <v>0.63900000000000001</v>
       </c>
-      <c r="N10">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="O10">
-        <v>0.65159999999999996</v>
-      </c>
-      <c r="P10">
-        <v>0.6573</v>
-      </c>
-      <c r="Q10">
-        <v>0.65380000000000005</v>
-      </c>
-      <c r="R10">
-        <v>0.65639999999999998</v>
-      </c>
-      <c r="S10">
-        <v>0.62309999999999999</v>
-      </c>
-      <c r="T10">
-        <v>0.63349999999999995</v>
-      </c>
-      <c r="U10">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="V10">
-        <v>0.6472</v>
-      </c>
-      <c r="W10">
-        <v>0.62050000000000005</v>
-      </c>
-      <c r="X10">
-        <v>0.60640000000000005</v>
-      </c>
-      <c r="Y10">
-        <v>0.64829999999999999</v>
-      </c>
-      <c r="Z10">
-        <v>0.65659999999999996</v>
-      </c>
-      <c r="AA10">
-        <v>0.65049999999999997</v>
-      </c>
-      <c r="AB10">
-        <v>0.66739999999999999</v>
-      </c>
-      <c r="AC10">
-        <v>0.67010000000000003</v>
-      </c>
-      <c r="AD10">
-        <v>0.64990000000000003</v>
-      </c>
-      <c r="AE10">
-        <v>0.67910000000000004</v>
-      </c>
-      <c r="AF10">
-        <v>0.67230000000000001</v>
-      </c>
       <c r="AG10">
-        <v>0.65649999999999997</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="AH10">
-        <v>0.67020000000000002</v>
+        <v>0.65190000000000003</v>
       </c>
       <c r="AI10">
-        <v>0.66879999999999995</v>
+        <v>0.65810000000000002</v>
       </c>
       <c r="AJ10">
-        <v>0.63319999999999999</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="AK10">
-        <v>0.6532</v>
+        <v>0.66439999999999999</v>
       </c>
       <c r="AL10">
-        <v>0.62819999999999998</v>
+        <v>0.62619999999999998</v>
       </c>
       <c r="AM10">
-        <v>0.63190000000000002</v>
+        <v>0.67979999999999996</v>
       </c>
       <c r="AN10">
-        <v>0.65210000000000001</v>
+        <v>0.65359999999999996</v>
       </c>
       <c r="AO10">
-        <v>0.63460000000000005</v>
+        <v>0.65180000000000005</v>
       </c>
       <c r="AP10">
-        <v>0.62980000000000003</v>
+        <v>0.66210000000000002</v>
       </c>
       <c r="AQ10">
-        <v>0.67259999999999998</v>
+        <v>0.66090000000000004</v>
       </c>
       <c r="AR10">
-        <v>0.66810000000000003</v>
+        <v>0.65890000000000004</v>
       </c>
       <c r="AS10">
-        <v>0.63919999999999999</v>
+        <v>0.62229999999999996</v>
       </c>
       <c r="AT10">
-        <v>0.67310000000000003</v>
+        <v>0.66139999999999999</v>
       </c>
       <c r="AU10">
-        <v>0.63519999999999999</v>
+        <v>0.60319999999999996</v>
       </c>
       <c r="AV10">
-        <v>0.69369999999999998</v>
+        <v>0.65759999999999996</v>
       </c>
       <c r="AW10">
-        <v>0.63119999999999998</v>
+        <v>0.65549999999999997</v>
       </c>
       <c r="AX10">
-        <v>0.64539999999999997</v>
+        <v>0.66439999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.67510000000000003</v>
+        <v>0.61150000000000004</v>
       </c>
       <c r="B11">
-        <v>0.61060000000000003</v>
+        <v>0.61639999999999995</v>
       </c>
       <c r="C11">
-        <v>0.63519999999999999</v>
+        <v>0.62590000000000001</v>
       </c>
       <c r="D11">
-        <v>0.65069999999999995</v>
+        <v>0.62170000000000003</v>
       </c>
       <c r="E11">
-        <v>0.64349999999999996</v>
+        <v>0.60570000000000002</v>
       </c>
       <c r="F11">
-        <v>0.64100000000000001</v>
+        <v>0.66349999999999998</v>
       </c>
       <c r="G11">
-        <v>0.61480000000000001</v>
+        <v>0.65090000000000003</v>
       </c>
       <c r="H11">
-        <v>0.63100000000000001</v>
+        <v>0.66949999999999998</v>
       </c>
       <c r="I11">
-        <v>0.64870000000000005</v>
+        <v>0.64149999999999996</v>
       </c>
       <c r="J11">
-        <v>0.66080000000000005</v>
+        <v>0.64239999999999997</v>
       </c>
       <c r="K11">
-        <v>0.6462</v>
+        <v>0.58979999999999999</v>
       </c>
       <c r="L11">
-        <v>0.64549999999999996</v>
+        <v>0.62409999999999999</v>
       </c>
       <c r="M11">
-        <v>0.64739999999999998</v>
+        <v>0.6139</v>
       </c>
       <c r="N11">
-        <v>0.66979999999999995</v>
+        <v>0.67369999999999997</v>
       </c>
       <c r="O11">
-        <v>0.65</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="P11">
-        <v>0.64439999999999997</v>
+        <v>0.65549999999999997</v>
       </c>
       <c r="Q11">
-        <v>0.66800000000000004</v>
+        <v>0.64910000000000001</v>
       </c>
       <c r="R11">
-        <v>0.63570000000000004</v>
+        <v>0.68710000000000004</v>
       </c>
       <c r="S11">
-        <v>0.62229999999999996</v>
+        <v>0.61129999999999995</v>
       </c>
       <c r="T11">
-        <v>0.627</v>
+        <v>0.64639999999999997</v>
       </c>
       <c r="U11">
-        <v>0.67679999999999996</v>
+        <v>0.64949999999999997</v>
       </c>
       <c r="V11">
-        <v>0.64059999999999995</v>
+        <v>0.62339999999999995</v>
       </c>
       <c r="W11">
-        <v>0.61240000000000006</v>
+        <v>0.69740000000000002</v>
       </c>
       <c r="X11">
-        <v>0.60799999999999998</v>
+        <v>0.61</v>
       </c>
       <c r="Y11">
-        <v>0.63959999999999995</v>
+        <v>0.60719999999999996</v>
       </c>
       <c r="Z11">
-        <v>0.65139999999999998</v>
+        <v>0.64829999999999999</v>
       </c>
       <c r="AA11">
-        <v>0.64729999999999999</v>
+        <v>0.65459999999999996</v>
       </c>
       <c r="AB11">
-        <v>0.66169999999999995</v>
+        <v>0.64029999999999998</v>
       </c>
       <c r="AC11">
-        <v>0.67049999999999998</v>
+        <v>0.63139999999999996</v>
       </c>
       <c r="AD11">
-        <v>0.66169999999999995</v>
+        <v>0.58220000000000005</v>
       </c>
       <c r="AE11">
-        <v>0.67120000000000002</v>
+        <v>0.64710000000000001</v>
       </c>
       <c r="AF11">
-        <v>0.66900000000000004</v>
+        <v>0.62570000000000003</v>
       </c>
       <c r="AG11">
-        <v>0.65110000000000001</v>
+        <v>0.63219999999999998</v>
       </c>
       <c r="AH11">
-        <v>0.66910000000000003</v>
+        <v>0.65759999999999996</v>
       </c>
       <c r="AI11">
-        <v>0.66749999999999998</v>
+        <v>0.65620000000000001</v>
       </c>
       <c r="AJ11">
-        <v>0.64300000000000002</v>
+        <v>0.63219999999999998</v>
       </c>
       <c r="AK11">
-        <v>0.65090000000000003</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="AL11">
-        <v>0.63319999999999999</v>
+        <v>0.62919999999999998</v>
       </c>
       <c r="AM11">
-        <v>0.62870000000000004</v>
+        <v>0.67559999999999998</v>
       </c>
       <c r="AN11">
-        <v>0.65300000000000002</v>
+        <v>0.6401</v>
       </c>
       <c r="AO11">
-        <v>0.62519999999999998</v>
+        <v>0.64680000000000004</v>
       </c>
       <c r="AP11">
-        <v>0.61829999999999996</v>
+        <v>0.66390000000000005</v>
       </c>
       <c r="AQ11">
-        <v>0.65720000000000001</v>
+        <v>0.65269999999999995</v>
       </c>
       <c r="AR11">
-        <v>0.66159999999999997</v>
+        <v>0.67220000000000002</v>
       </c>
       <c r="AS11">
-        <v>0.62909999999999999</v>
+        <v>0.63029999999999997</v>
       </c>
       <c r="AT11">
-        <v>0.67979999999999996</v>
+        <v>0.65390000000000004</v>
       </c>
       <c r="AU11">
-        <v>0.62419999999999998</v>
+        <v>0.58109999999999995</v>
       </c>
       <c r="AV11">
-        <v>0.68959999999999999</v>
+        <v>0.64449999999999996</v>
       </c>
       <c r="AW11">
-        <v>0.61509999999999998</v>
+        <v>0.65549999999999997</v>
       </c>
       <c r="AX11">
-        <v>0.66659999999999997</v>
+        <v>0.65780000000000005</v>
       </c>
     </row>
   </sheetData>
